--- a/文档/文档/开发计划表.xlsx
+++ b/文档/文档/开发计划表.xlsx
@@ -1006,7 +1006,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2132,14 +2132,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="D61:D79"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E52"/>
-    <mergeCell ref="D42:D52"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="D12:D16"/>
     <mergeCell ref="E33:E37"/>
     <mergeCell ref="D33:D37"/>
     <mergeCell ref="E38:E39"/>
@@ -2150,12 +2148,14 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E61:E79"/>
+    <mergeCell ref="D61:D79"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E52"/>
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="D53:D60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G79">
